--- a/Calculs/PH4/DataBase_PH4_FileB_MidStrip_V6_results.xlsx
+++ b/Calculs/PH4/DataBase_PH4_FileB_MidStrip_V6_results.xlsx
@@ -913,86 +913,86 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V3" t="n">
-        <v>56.256</v>
+        <v>42</v>
       </c>
       <c r="W3" t="n">
-        <v>17.088</v>
+        <v>21</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>56.256</v>
+        <v>42</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.088</v>
+        <v>20.7</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>56.256</v>
+        <v>42</v>
       </c>
       <c r="AC3" t="n">
-        <v>17.088</v>
+        <v>20.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>101.5776</v>
+        <v>87.75</v>
       </c>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="n">
-        <v>73.34399999999999</v>
+        <v>62.7</v>
       </c>
       <c r="AG3" t="n">
-        <v>56.256</v>
+        <v>42</v>
       </c>
       <c r="AH3" t="n">
-        <v>17.088</v>
+        <v>20.7</v>
       </c>
       <c r="AI3" t="n">
-        <v>8.808329665532201</v>
+        <v>6.576184690563713</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2.029716419474999</v>
+        <v>2.532667596290888</v>
       </c>
       <c r="AK3" t="n">
-        <v>-580.6479624266319</v>
+        <v>-433.5042381598149</v>
       </c>
       <c r="AL3" t="n">
-        <v>-107.4865114249125</v>
+        <v>-137.9216558720316</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-145.3986202021675</v>
+        <v>-186.4657988448104</v>
       </c>
       <c r="AO3" t="n">
-        <v>101.5776</v>
+        <v>87.75</v>
       </c>
       <c r="AP3" t="n">
         <v>45.92194782608675</v>
       </c>
       <c r="AQ3" t="n">
-        <v>128.3276871585634</v>
+        <v>116.2322478207992</v>
       </c>
       <c r="AR3" t="n">
-        <v>9.403696739650133</v>
+        <v>8.463527845938085</v>
       </c>
       <c r="AS3" t="n">
-        <v>-436.6777619043171</v>
+        <v>-436.3185611058112</v>
       </c>
       <c r="AT3" t="n">
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>-1297.92119164163</v>
+        <v>-1163.235084754197</v>
       </c>
       <c r="AV3" t="n">
-        <v>73.34399999999999</v>
+        <v>62.7</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
@@ -1075,53 +1075,53 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6446000000000001</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1958</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.6446000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1958</v>
+        <v>6.6</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6446000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.1958</v>
+        <v>6.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.16391</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="n">
-        <v>0.8404</v>
+        <v>6.6</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.6446000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.1958</v>
+        <v>6.6</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.08379293160444538</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.02531474322512556</v>
+        <v>0.8580013950771194</v>
       </c>
       <c r="AK4" t="n">
-        <v>-3.714926624659403</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-1.120678671796595</v>
+        <v>-38.03964860360255</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.16391</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="AP4" t="n">
         <v>82.50344403855161</v>
@@ -1139,10 +1139,10 @@
         <v>82.50344403855161</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.1137911946555751</v>
+        <v>0.9602183070991218</v>
       </c>
       <c r="AS4" t="n">
-        <v>-6.812623515309228</v>
+        <v>-57.96713027870087</v>
       </c>
       <c r="AT4" t="n">
         <v>0</v>
@@ -1151,13 +1151,13 @@
         <v>0</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.8404</v>
+        <v>6.6</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.08218667891006042</v>
+        <v>0.6420858829758699</v>
       </c>
       <c r="AX4" t="n">
-        <v>-4.918962785676903</v>
+        <v>-38.63964013564284</v>
       </c>
       <c r="AY4" t="n">
         <v>82.50344403855161</v>
@@ -1234,53 +1234,53 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>29.25312</v>
+        <v>22</v>
       </c>
       <c r="W5" t="n">
-        <v>8.885759999999999</v>
+        <v>23</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>29.25312</v>
+        <v>22</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.885759999999999</v>
+        <v>22.7</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>29.25312</v>
+        <v>22</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.885759999999999</v>
+        <v>22.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>52.820352</v>
+        <v>63.75</v>
       </c>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="n">
-        <v>38.13888</v>
+        <v>44.7</v>
       </c>
       <c r="AG5" t="n">
-        <v>29.25312</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.885759999999999</v>
+        <v>22.7</v>
       </c>
       <c r="AI5" t="n">
-        <v>2.448228708496333</v>
+        <v>1.841205760904164</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.7436582904985842</v>
+        <v>1.899790233755128</v>
       </c>
       <c r="AK5" t="n">
-        <v>-77.43036932982398</v>
+        <v>-58.23201907424249</v>
       </c>
       <c r="AL5" t="n">
-        <v>-23.51981524288955</v>
+        <v>-60.08485193329818</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>52.820352</v>
+        <v>63.75</v>
       </c>
       <c r="AP5" t="n">
         <v>176.642758331491</v>
@@ -1298,10 +1298,10 @@
         <v>176.642758331491</v>
       </c>
       <c r="AR5" t="n">
-        <v>3.280592593206936</v>
+        <v>3.931616825684757</v>
       </c>
       <c r="AS5" t="n">
-        <v>-142.8817504947391</v>
+        <v>-172.5248195322429</v>
       </c>
       <c r="AT5" t="n">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="AV5" t="n">
-        <v>38.13888</v>
+        <v>44.7</v>
       </c>
       <c r="AW5" t="n">
-        <v>2.390704823290352</v>
+        <v>2.790545366168562</v>
       </c>
       <c r="AX5" t="n">
-        <v>-103.1064273435679</v>
+        <v>-120.8758984726396</v>
       </c>
       <c r="AY5" t="n">
         <v>176.642758331491</v>
@@ -1393,53 +1393,53 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>30.2962</v>
+        <v>27</v>
       </c>
       <c r="W6" t="n">
-        <v>9.2026</v>
+        <v>13</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>30.2962</v>
+        <v>27</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.2026</v>
+        <v>13</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>30.2962</v>
+        <v>27</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.2026</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>54.70377</v>
+        <v>55.95</v>
       </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>39.4988</v>
+        <v>40</v>
       </c>
       <c r="AG6" t="n">
-        <v>30.2962</v>
+        <v>27</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.2026</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
-        <v>3.938512403869025</v>
+        <v>3.510005707133678</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.196339945202532</v>
+        <v>1.690002747879175</v>
       </c>
       <c r="AK6" t="n">
-        <v>-174.6146669734034</v>
+        <v>-155.616744287465</v>
       </c>
       <c r="AL6" t="n">
-        <v>-53.03995003628983</v>
+        <v>-74.92658058285349</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>54.70377</v>
+        <v>55.95</v>
       </c>
       <c r="AP6" t="n">
         <v>82.50344403855161</v>
@@ -1457,10 +1457,10 @@
         <v>82.50344403855161</v>
       </c>
       <c r="AR6" t="n">
-        <v>5.077207258844818</v>
+        <v>5.186063921731074</v>
       </c>
       <c r="AS6" t="n">
-        <v>-320.9146995115292</v>
+        <v>-328.2439561520733</v>
       </c>
       <c r="AT6" t="n">
         <v>0</v>
@@ -1469,13 +1469,13 @@
         <v>0</v>
       </c>
       <c r="AV6" t="n">
-        <v>39.4988</v>
+        <v>40</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.723650282526429</v>
+        <v>3.769003690627093</v>
       </c>
       <c r="AX6" t="n">
-        <v>-231.5612822523887</v>
+        <v>-234.5046347582509</v>
       </c>
       <c r="AY6" t="n">
         <v>82.50344403855161</v>
@@ -1552,53 +1552,53 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>78.75839999999999</v>
+        <v>60</v>
       </c>
       <c r="W7" t="n">
-        <v>23.9232</v>
+        <v>33</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>78.75839999999999</v>
+        <v>60</v>
       </c>
       <c r="Z7" t="n">
-        <v>23.9232</v>
+        <v>33</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>78.75839999999999</v>
+        <v>60</v>
       </c>
       <c r="AC7" t="n">
-        <v>23.9232</v>
+        <v>33</v>
       </c>
       <c r="AD7" t="n">
-        <v>142.20864</v>
+        <v>130.5</v>
       </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>102.6816</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="n">
-        <v>78.75839999999999</v>
+        <v>60</v>
       </c>
       <c r="AH7" t="n">
-        <v>23.9232</v>
+        <v>33</v>
       </c>
       <c r="AI7" t="n">
-        <v>5.992168167648368</v>
+        <v>4.564974530448845</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.820145344702136</v>
+        <v>2.510735991746864</v>
       </c>
       <c r="AK7" t="n">
-        <v>-189.5148899681006</v>
+        <v>-144.3768969162151</v>
       </c>
       <c r="AL7" t="n">
-        <v>-57.56596452179722</v>
+        <v>-79.40729330391829</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>142.20864</v>
+        <v>130.5</v>
       </c>
       <c r="AP7" t="n">
         <v>194.3070341646405</v>
@@ -1616,10 +1616,10 @@
         <v>194.3070341646405</v>
       </c>
       <c r="AR7" t="n">
-        <v>7.615501298909694</v>
+        <v>7.044062267582683</v>
       </c>
       <c r="AS7" t="n">
-        <v>-350.882729929438</v>
+        <v>-321.8338908864919</v>
       </c>
       <c r="AT7" t="n">
         <v>0</v>
@@ -1628,13 +1628,13 @@
         <v>0</v>
       </c>
       <c r="AV7" t="n">
-        <v>102.6816</v>
+        <v>93</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.643485759579763</v>
+        <v>5.14239250817784</v>
       </c>
       <c r="AX7" t="n">
-        <v>-252.9418596122153</v>
+        <v>-229.0048424471757</v>
       </c>
       <c r="AY7" t="n">
         <v>194.3070341646405</v>
@@ -1711,53 +1711,53 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>50.9234</v>
+        <v>45</v>
       </c>
       <c r="W8" t="n">
-        <v>15.4682</v>
+        <v>14</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>50.9234</v>
+        <v>45</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.4682</v>
+        <v>14</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>50.9234</v>
+        <v>45</v>
       </c>
       <c r="AC8" t="n">
-        <v>15.4682</v>
+        <v>14</v>
       </c>
       <c r="AD8" t="n">
-        <v>91.94889000000001</v>
+        <v>81.75</v>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="n">
-        <v>66.3916</v>
+        <v>59</v>
       </c>
       <c r="AG8" t="n">
-        <v>50.9234</v>
+        <v>45</v>
       </c>
       <c r="AH8" t="n">
-        <v>15.4682</v>
+        <v>14</v>
       </c>
       <c r="AI8" t="n">
-        <v>6.260801002936584</v>
+        <v>5.532545845959733</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1.901745014543878</v>
+        <v>1.721236485409692</v>
       </c>
       <c r="AK8" t="n">
-        <v>-293.0830282675033</v>
+        <v>-258.9916673285296</v>
       </c>
       <c r="AL8" t="n">
-        <v>-89.02522019047024</v>
+        <v>-80.57518539109809</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>91.94889000000001</v>
+        <v>81.75</v>
       </c>
       <c r="AP8" t="n">
         <v>82.63256119540998</v>
@@ -1775,10 +1775,10 @@
         <v>82.63256119540998</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>-461.2084789974363</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
@@ -1787,13 +1787,13 @@
         <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>66.3916</v>
+        <v>59</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.781489645414107</v>
+        <v>5.177205944837499</v>
       </c>
       <c r="AX8" t="n">
-        <v>-388.6651867911656</v>
+        <v>-345.2793128740262</v>
       </c>
       <c r="AY8" t="n">
         <v>82.63256119540998</v>
@@ -1870,53 +1870,53 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>76.50816</v>
+        <v>59</v>
       </c>
       <c r="W9" t="n">
-        <v>23.23968</v>
+        <v>32</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>76.50816</v>
+        <v>59</v>
       </c>
       <c r="Z9" t="n">
-        <v>23.23968</v>
+        <v>32</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>76.50816</v>
+        <v>59</v>
       </c>
       <c r="AC9" t="n">
-        <v>23.23968</v>
+        <v>32</v>
       </c>
       <c r="AD9" t="n">
-        <v>138.145536</v>
+        <v>127.65</v>
       </c>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="n">
-        <v>99.74784</v>
+        <v>91</v>
       </c>
       <c r="AG9" t="n">
-        <v>76.50816</v>
+        <v>59</v>
       </c>
       <c r="AH9" t="n">
-        <v>23.23968</v>
+        <v>32</v>
       </c>
       <c r="AI9" t="n">
-        <v>5.820963362858411</v>
+        <v>4.488891621608031</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.768141298602941</v>
+        <v>2.434653082906053</v>
       </c>
       <c r="AK9" t="n">
-        <v>-184.1001788261549</v>
+        <v>-141.9706153009449</v>
       </c>
       <c r="AL9" t="n">
-        <v>-55.92122200728053</v>
+        <v>-77.00101168864805</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>138.145536</v>
+        <v>127.65</v>
       </c>
       <c r="AP9" t="n">
         <v>194.3070341646405</v>
@@ -1934,10 +1934,10 @@
         <v>194.3070341646405</v>
       </c>
       <c r="AR9" t="n">
-        <v>7.418447535114042</v>
+        <v>6.903318269738143</v>
       </c>
       <c r="AS9" t="n">
-        <v>-340.7986309840572</v>
+        <v>-314.7679281308485</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
@@ -1946,13 +1946,13 @@
         <v>0</v>
       </c>
       <c r="AV9" t="n">
-        <v>99.74784</v>
+        <v>91</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.492370232479453</v>
+        <v>5.038024185182141</v>
       </c>
       <c r="AX9" t="n">
-        <v>-245.6862722809332</v>
+        <v>-224.0624427216106</v>
       </c>
       <c r="AY9" t="n">
         <v>194.3070341646405</v>
@@ -2029,53 +2029,53 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>33.5192</v>
+        <v>32</v>
       </c>
       <c r="W10" t="n">
-        <v>10.1816</v>
+        <v>11</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.5192</v>
+        <v>32</v>
       </c>
       <c r="Z10" t="n">
-        <v>10.1816</v>
+        <v>11</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>33.5192</v>
+        <v>32</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.1816</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>60.52332</v>
+        <v>59.7</v>
       </c>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="n">
-        <v>43.7008</v>
+        <v>43</v>
       </c>
       <c r="AG10" t="n">
-        <v>33.5192</v>
+        <v>32</v>
       </c>
       <c r="AH10" t="n">
-        <v>10.1816</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
-        <v>3.83316257557661</v>
+        <v>3.659431084824567</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.164339485414053</v>
+        <v>1.257929435408444</v>
       </c>
       <c r="AK10" t="n">
-        <v>-192.5307284093629</v>
+        <v>-183.8046047966423</v>
       </c>
       <c r="AL10" t="n">
-        <v>-58.48203013117163</v>
+        <v>-63.18283289884579</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>60.52332</v>
+        <v>59.7</v>
       </c>
       <c r="AP10" t="n">
         <v>82.81100113579481</v>
@@ -2093,10 +2093,10 @@
         <v>82.81100113579481</v>
       </c>
       <c r="AR10" t="n">
-        <v>4.963805085777047</v>
+        <v>4.900193941285908</v>
       </c>
       <c r="AS10" t="n">
-        <v>-352.8354220379643</v>
+        <v>-348.023219386634</v>
       </c>
       <c r="AT10" t="n">
         <v>0</v>
@@ -2105,13 +2105,13 @@
         <v>0</v>
       </c>
       <c r="AV10" t="n">
-        <v>43.7008</v>
+        <v>43</v>
       </c>
       <c r="AW10" t="n">
-        <v>3.641840501969252</v>
+        <v>3.585770206533159</v>
       </c>
       <c r="AX10" t="n">
-        <v>-254.5814149686021</v>
+        <v>-250.4915079093068</v>
       </c>
       <c r="AY10" t="n">
         <v>82.81100113579481</v>
@@ -2188,53 +2188,53 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>82.50880000000001</v>
+        <v>64</v>
       </c>
       <c r="W11" t="n">
-        <v>25.0624</v>
+        <v>33</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>82.50880000000001</v>
+        <v>64</v>
       </c>
       <c r="Z11" t="n">
-        <v>25.0624</v>
+        <v>33</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>82.50880000000001</v>
+        <v>64</v>
       </c>
       <c r="AC11" t="n">
-        <v>25.0624</v>
+        <v>33</v>
       </c>
       <c r="AD11" t="n">
-        <v>148.98048</v>
+        <v>135.9</v>
       </c>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="n">
-        <v>107.5712</v>
+        <v>97</v>
       </c>
       <c r="AG11" t="n">
-        <v>82.50880000000001</v>
+        <v>64</v>
       </c>
       <c r="AH11" t="n">
-        <v>25.0624</v>
+        <v>33</v>
       </c>
       <c r="AI11" t="n">
-        <v>5.524208367889168</v>
+        <v>4.284989425914651</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.678000710160334</v>
+        <v>2.209446677351186</v>
       </c>
       <c r="AK11" t="n">
-        <v>-174.714679513449</v>
+        <v>-135.5217805720206</v>
       </c>
       <c r="AL11" t="n">
-        <v>-53.07033650457692</v>
+        <v>-69.87842437292116</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>148.98048</v>
+        <v>135.9</v>
       </c>
       <c r="AP11" t="n">
         <v>220.8034479143638</v>
@@ -2252,10 +2252,10 @@
         <v>220.8034479143638</v>
       </c>
       <c r="AR11" t="n">
-        <v>7.073749912451947</v>
+        <v>6.501948816337412</v>
       </c>
       <c r="AS11" t="n">
-        <v>-323.3286985438441</v>
+        <v>-294.7998343658825</v>
       </c>
       <c r="AT11" t="n">
         <v>0</v>
@@ -2264,13 +2264,13 @@
         <v>0</v>
       </c>
       <c r="AV11" t="n">
-        <v>107.5712</v>
+        <v>97</v>
       </c>
       <c r="AW11" t="n">
-        <v>5.228935530485915</v>
+        <v>4.742149801114439</v>
       </c>
       <c r="AX11" t="n">
-        <v>-233.114231338805</v>
+        <v>-210.1293236133968</v>
       </c>
       <c r="AY11" t="n">
         <v>220.8034479143638</v>
@@ -2342,12 +2342,8 @@
       <c r="U12" t="n">
         <v>0</v>
       </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
       <c r="X12" t="n">
         <v>0</v>
       </c>
@@ -2493,86 +2489,86 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>64.05000000000001</v>
       </c>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>7.473284564300003</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>2.488045692461804</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>-343.3862285925732</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>-98.92566117881134</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>-134.7071321181154</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>64.05000000000001</v>
       </c>
       <c r="AP13" t="n">
         <v>45.72275978720826</v>
       </c>
       <c r="AQ13" t="n">
-        <v>102.4755546109214</v>
+        <v>90.60376853635199</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>9.217618269594457</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>-435.541872716237</v>
       </c>
       <c r="AT13" t="n">
         <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>-883.0729160679548</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AW13" t="n">
         <v>0</v>
@@ -2655,53 +2651,53 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>42.75456000000001</v>
+        <v>22</v>
       </c>
       <c r="W14" t="n">
-        <v>12.98688</v>
+        <v>12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>42.75456000000001</v>
+        <v>22</v>
       </c>
       <c r="Z14" t="n">
-        <v>12.98688</v>
+        <v>12</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>42.75456000000001</v>
+        <v>22</v>
       </c>
       <c r="AC14" t="n">
-        <v>12.98688</v>
+        <v>12</v>
       </c>
       <c r="AD14" t="n">
-        <v>77.19897600000002</v>
+        <v>47.7</v>
       </c>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="n">
-        <v>55.74144</v>
+        <v>34</v>
       </c>
       <c r="AG14" t="n">
-        <v>42.75456000000001</v>
+        <v>22</v>
       </c>
       <c r="AH14" t="n">
-        <v>12.98688</v>
+        <v>12</v>
       </c>
       <c r="AI14" t="n">
-        <v>8.169143548390061</v>
+        <v>4.203555318183161</v>
       </c>
       <c r="AJ14" t="n">
-        <v>2.481412204118483</v>
+        <v>2.292848355372635</v>
       </c>
       <c r="AK14" t="n">
-        <v>-250.6018792262736</v>
+        <v>-128.9509550087293</v>
       </c>
       <c r="AL14" t="n">
-        <v>-76.12138993562579</v>
+        <v>-70.336884550216</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
@@ -2710,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>77.19897600000002</v>
+        <v>47.7</v>
       </c>
       <c r="AP14" t="n">
         <v>79.46830817989363</v>
@@ -2719,10 +2715,10 @@
         <v>79.46830817989363</v>
       </c>
       <c r="AR14" t="n">
-        <v>16.66666666666667</v>
+        <v>6.543848438445062</v>
       </c>
       <c r="AS14" t="n">
-        <v>-445.1918791764918</v>
+        <v>-286.3524005707292</v>
       </c>
       <c r="AT14" t="n">
         <v>0</v>
@@ -2731,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>55.74144</v>
+        <v>34</v>
       </c>
       <c r="AW14" t="n">
-        <v>7.543857853594992</v>
+        <v>4.764197912916774</v>
       </c>
       <c r="AX14" t="n">
-        <v>-334.9286814682776</v>
+        <v>-203.8554285067717</v>
       </c>
       <c r="AY14" t="n">
         <v>79.46830817989363</v>
@@ -2814,53 +2810,53 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>30.2962</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>9.2026</v>
+        <v>10</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>30.2962</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>9.2026</v>
+        <v>10</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>30.2962</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.2026</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>54.70377</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="n">
-        <v>39.4988</v>
+        <v>10</v>
       </c>
       <c r="AG15" t="n">
-        <v>30.2962</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>9.2026</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
-        <v>5.066533005906543</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1.538979772602038</v>
+        <v>1.672332283768398</v>
       </c>
       <c r="AK15" t="n">
-        <v>-160.0808202621497</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>-48.62523990027666</v>
+        <v>-52.83858396998651</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -2869,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>54.70377</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
         <v>88.4793617171849</v>
@@ -2878,10 +2874,10 @@
         <v>88.4793617171849</v>
       </c>
       <c r="AR15" t="n">
-        <v>6.53512512200309</v>
+        <v>1.888461074227151</v>
       </c>
       <c r="AS15" t="n">
-        <v>-296.1164245386587</v>
+        <v>-80.92548398735647</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
@@ -2890,13 +2886,13 @@
         <v>0</v>
       </c>
       <c r="AV15" t="n">
-        <v>39.4988</v>
+        <v>10</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.819411401136131</v>
+        <v>1.266593404247562</v>
       </c>
       <c r="AX15" t="n">
-        <v>-213.5255026419683</v>
+        <v>-53.9292634870042</v>
       </c>
       <c r="AY15" t="n">
         <v>88.4793617171849</v>
@@ -2973,53 +2969,53 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0.75008</v>
+        <v>32</v>
       </c>
       <c r="W16" t="n">
-        <v>0.22784</v>
+        <v>16</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.75008</v>
+        <v>32</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.22784</v>
+        <v>16</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.75008</v>
+        <v>32</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.22784</v>
+        <v>16</v>
       </c>
       <c r="AD16" t="n">
-        <v>1.354368</v>
+        <v>67.2</v>
       </c>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="n">
-        <v>0.9779199999999999</v>
+        <v>48</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.75008</v>
+        <v>32</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.22784</v>
+        <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.1430878882009563</v>
+        <v>6.104225755204247</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.04339388455191953</v>
+        <v>3.052112877602124</v>
       </c>
       <c r="AK16" t="n">
-        <v>-4.379480746740505</v>
+        <v>-186.8402925764653</v>
       </c>
       <c r="AL16" t="n">
-        <v>-1.328202053706129</v>
+        <v>-93.42014628823262</v>
       </c>
       <c r="AM16" t="n">
         <v>0</v>
@@ -3028,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>1.354368</v>
+        <v>67.2</v>
       </c>
       <c r="AP16" t="n">
         <v>79.75790420253382</v>
@@ -3037,10 +3033,10 @@
         <v>79.75790420253382</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.198254718598447</v>
+        <v>8.89523887836631</v>
       </c>
       <c r="AS16" t="n">
-        <v>-8.067492704764224</v>
+        <v>-402.8248248417515</v>
       </c>
       <c r="AT16" t="n">
         <v>0</v>
@@ -3049,13 +3045,13 @@
         <v>0</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.9779199999999999</v>
+        <v>48</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.1432212440421669</v>
+        <v>6.572883249098376</v>
       </c>
       <c r="AX16" t="n">
-        <v>-5.824918212219623</v>
+        <v>-287.0532598008257</v>
       </c>
       <c r="AY16" t="n">
         <v>79.75790420253382</v>
@@ -3123,98 +3119,98 @@
         <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.91e-05</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
-        <v>36.7422</v>
+        <v>32</v>
       </c>
       <c r="W17" t="n">
-        <v>11.1606</v>
+        <v>16</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>36.7422</v>
+        <v>32</v>
       </c>
       <c r="Z17" t="n">
-        <v>11.1606</v>
+        <v>16</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>36.7422</v>
+        <v>32</v>
       </c>
       <c r="AC17" t="n">
-        <v>11.1606</v>
+        <v>16</v>
       </c>
       <c r="AD17" t="n">
-        <v>66.34287</v>
+        <v>67.2</v>
       </c>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="n">
-        <v>47.9028</v>
+        <v>48</v>
       </c>
       <c r="AG17" t="n">
-        <v>36.7422</v>
+        <v>32</v>
       </c>
       <c r="AH17" t="n">
-        <v>11.1606</v>
+        <v>16</v>
       </c>
       <c r="AI17" t="n">
-        <v>6.954671109414456</v>
+        <v>6.057053619578102</v>
       </c>
       <c r="AJ17" t="n">
-        <v>2.11251101958323</v>
+        <v>2.689409468077428</v>
       </c>
       <c r="AK17" t="n">
-        <v>-257.4116920916503</v>
+        <v>-224.1883759527957</v>
       </c>
       <c r="AL17" t="n">
-        <v>-78.18989964558658</v>
+        <v>-89.96536927926327</v>
       </c>
       <c r="AM17" t="n">
         <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>-123.1177054032817</v>
       </c>
       <c r="AO17" t="n">
-        <v>66.34287</v>
+        <v>67.2</v>
       </c>
       <c r="AP17" t="n">
         <v>67.91717479784909</v>
       </c>
       <c r="AQ17" t="n">
-        <v>67.91717479784909</v>
+        <v>110.5792734301108</v>
       </c>
       <c r="AR17" t="n">
-        <v>16.66666666666667</v>
+        <v>7.896830572859139</v>
       </c>
       <c r="AS17" t="n">
-        <v>-455.3840988140688</v>
+        <v>-385.4153349567109</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>0</v>
+        <v>-535.707723014844</v>
       </c>
       <c r="AV17" t="n">
-        <v>47.9028</v>
+        <v>48</v>
       </c>
       <c r="AW17" t="n">
-        <v>6.441760976970979</v>
+        <v>6.453802508669606</v>
       </c>
       <c r="AX17" t="n">
-        <v>-342.7191504679173</v>
+        <v>-343.417585107081</v>
       </c>
       <c r="AY17" t="n">
         <v>67.91717479784909</v>
@@ -3288,92 +3284,92 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
-        <v>41.2544</v>
+        <v>47</v>
       </c>
       <c r="W18" t="n">
-        <v>12.5312</v>
+        <v>18</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>41.2544</v>
+        <v>47</v>
       </c>
       <c r="Z18" t="n">
-        <v>12.5312</v>
+        <v>18</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>41.2544</v>
+        <v>47</v>
       </c>
       <c r="AC18" t="n">
-        <v>12.5312</v>
+        <v>18</v>
       </c>
       <c r="AD18" t="n">
-        <v>74.49024000000001</v>
+        <v>90.45</v>
       </c>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="n">
-        <v>53.7856</v>
+        <v>65</v>
       </c>
       <c r="AG18" t="n">
-        <v>41.2544</v>
+        <v>47</v>
       </c>
       <c r="AH18" t="n">
-        <v>12.5312</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>7.869567843609318</v>
+        <v>8.965581577956229</v>
       </c>
       <c r="AJ18" t="n">
-        <v>2.078344792542997</v>
+        <v>3.06254347284921</v>
       </c>
       <c r="AK18" t="n">
-        <v>-240.874505189579</v>
+        <v>-274.4216797216833</v>
       </c>
       <c r="AL18" t="n">
-        <v>-57.07147593441812</v>
+        <v>-85.74553595673133</v>
       </c>
       <c r="AM18" t="n">
         <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>-86.39965830207144</v>
+        <v>-129.6807270758184</v>
       </c>
       <c r="AO18" t="n">
-        <v>74.49024000000001</v>
+        <v>90.45</v>
       </c>
       <c r="AP18" t="n">
         <v>79.75790420253382</v>
       </c>
       <c r="AQ18" t="n">
-        <v>133.9370553900713</v>
+        <v>122.2737610047975</v>
       </c>
       <c r="AR18" t="n">
-        <v>8.623275361416631</v>
+        <v>10.57227699175915</v>
       </c>
       <c r="AS18" t="n">
-        <v>-346.399006995705</v>
+        <v>-434.890612798411</v>
       </c>
       <c r="AT18" t="n">
         <v>0</v>
       </c>
       <c r="AU18" t="n">
-        <v>-538.5137979612313</v>
+        <v>-720.1960010001186</v>
       </c>
       <c r="AV18" t="n">
-        <v>53.7856</v>
+        <v>65</v>
       </c>
       <c r="AW18" t="n">
-        <v>7.293046953486154</v>
+        <v>8.63915850208957</v>
       </c>
       <c r="AX18" t="n">
-        <v>-321.8740184449401</v>
+        <v>-389.5273271886338</v>
       </c>
       <c r="AY18" t="n">
         <v>79.75790420253382</v>
@@ -3447,86 +3443,86 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
-        <v>52.2126</v>
+        <v>25</v>
       </c>
       <c r="W19" t="n">
-        <v>15.8598</v>
+        <v>13.6</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>52.2126</v>
+        <v>25</v>
       </c>
       <c r="Z19" t="n">
-        <v>15.8598</v>
+        <v>13.6</v>
       </c>
       <c r="AA19" t="n">
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>52.2126</v>
+        <v>25</v>
       </c>
       <c r="AC19" t="n">
-        <v>15.8598</v>
+        <v>13.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>94.27671000000001</v>
+        <v>54.15</v>
       </c>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="n">
-        <v>68.0724</v>
+        <v>38.6</v>
       </c>
       <c r="AG19" t="n">
-        <v>52.2126</v>
+        <v>25</v>
       </c>
       <c r="AH19" t="n">
-        <v>15.8598</v>
+        <v>13.6</v>
       </c>
       <c r="AI19" t="n">
-        <v>15.75598410875376</v>
+        <v>7.544148399406349</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3.70859470629976</v>
+        <v>3.318732429108302</v>
       </c>
       <c r="AK19" t="n">
-        <v>-723.4902597014113</v>
+        <v>-346.4155489773595</v>
       </c>
       <c r="AL19" t="n">
-        <v>-136.4082040800745</v>
+        <v>-126.5357518997486</v>
       </c>
       <c r="AM19" t="n">
         <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>-186.1454818846344</v>
+        <v>-172.4991920846804</v>
       </c>
       <c r="AO19" t="n">
-        <v>94.27671000000001</v>
+        <v>54.15</v>
       </c>
       <c r="AP19" t="n">
         <v>34.33593042974106</v>
       </c>
       <c r="AQ19" t="n">
-        <v>91.6738982806809</v>
+        <v>79.86229326575787</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>9.756670972744566</v>
       </c>
       <c r="AS19" t="n">
-        <v>0</v>
+        <v>-435.5871870321442</v>
       </c>
       <c r="AT19" t="n">
         <v>0</v>
       </c>
       <c r="AU19" t="n">
-        <v>0</v>
+        <v>-901.8165585215492</v>
       </c>
       <c r="AV19" t="n">
-        <v>68.0724</v>
+        <v>38.6</v>
       </c>
       <c r="AW19" t="n">
         <v>0</v>
@@ -3609,53 +3605,53 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>32.25344</v>
+        <v>34</v>
       </c>
       <c r="W20" t="n">
-        <v>9.79712</v>
+        <v>14</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>32.25344</v>
+        <v>34</v>
       </c>
       <c r="Z20" t="n">
-        <v>9.79712</v>
+        <v>14</v>
       </c>
       <c r="AA20" t="n">
         <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>32.25344</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.79712</v>
+        <v>14</v>
       </c>
       <c r="AD20" t="n">
-        <v>58.237824</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="n">
-        <v>42.05056</v>
+        <v>48</v>
       </c>
       <c r="AG20" t="n">
-        <v>32.25344</v>
+        <v>34</v>
       </c>
       <c r="AH20" t="n">
-        <v>9.79712</v>
+        <v>14</v>
       </c>
       <c r="AI20" t="n">
-        <v>8.216916317678887</v>
+        <v>8.661871564741066</v>
       </c>
       <c r="AJ20" t="n">
-        <v>2.495923386598708</v>
+        <v>3.566652997246321</v>
       </c>
       <c r="AK20" t="n">
-        <v>-252.0673872919243</v>
+        <v>-265.7171194119271</v>
       </c>
       <c r="AL20" t="n">
-        <v>-76.56654426273471</v>
+        <v>-109.4129315225582</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
@@ -3664,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>58.237824</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="AP20" t="n">
         <v>59.60123113492035</v>
@@ -3673,10 +3669,10 @@
         <v>59.60123113492035</v>
       </c>
       <c r="AR20" t="n">
-        <v>16.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>-447.2949168159386</v>
+        <v>0</v>
       </c>
       <c r="AT20" t="n">
         <v>0</v>
@@ -3685,13 +3681,13 @@
         <v>0</v>
       </c>
       <c r="AV20" t="n">
-        <v>42.05056</v>
+        <v>48</v>
       </c>
       <c r="AW20" t="n">
-        <v>7.58363755202431</v>
+        <v>8.534226877708706</v>
       </c>
       <c r="AX20" t="n">
-        <v>-336.9007943489192</v>
+        <v>-384.9479512327889</v>
       </c>
       <c r="AY20" t="n">
         <v>59.60123113492035</v>
@@ -3768,53 +3764,53 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>38.67599999999999</v>
+        <v>17</v>
       </c>
       <c r="W21" t="n">
-        <v>11.748</v>
+        <v>9</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>38.67599999999999</v>
+        <v>17</v>
       </c>
       <c r="Z21" t="n">
-        <v>11.748</v>
+        <v>9</v>
       </c>
       <c r="AA21" t="n">
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>38.67599999999999</v>
+        <v>17</v>
       </c>
       <c r="AC21" t="n">
-        <v>11.748</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>69.83459999999999</v>
+        <v>36.45</v>
       </c>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="n">
-        <v>50.42399999999999</v>
+        <v>26</v>
       </c>
       <c r="AG21" t="n">
-        <v>38.67599999999999</v>
+        <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>11.748</v>
+        <v>9</v>
       </c>
       <c r="AI21" t="n">
-        <v>9.760941907950107</v>
+        <v>4.290412980534493</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2.964927746783479</v>
+        <v>2.271395107341788</v>
       </c>
       <c r="AK21" t="n">
-        <v>-361.27956784793</v>
+        <v>-158.8000996332302</v>
       </c>
       <c r="AL21" t="n">
-        <v>-109.7402100288935</v>
+        <v>-84.07064098229834</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
@@ -3823,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>69.83459999999999</v>
+        <v>36.45</v>
       </c>
       <c r="AP21" t="n">
         <v>50.93788109838682</v>
@@ -3832,10 +3828,10 @@
         <v>50.93788109838682</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>6.52803306117207</v>
       </c>
       <c r="AS21" t="n">
-        <v>0</v>
+        <v>-347.7292084509633</v>
       </c>
       <c r="AT21" t="n">
         <v>0</v>
@@ -3844,13 +3840,13 @@
         <v>0</v>
       </c>
       <c r="AV21" t="n">
-        <v>50.42399999999999</v>
+        <v>26</v>
       </c>
       <c r="AW21" t="n">
-        <v>16.66666666666667</v>
+        <v>4.760883743462012</v>
       </c>
       <c r="AX21" t="n">
-        <v>-461.3143207452173</v>
+        <v>-247.7325751087606</v>
       </c>
       <c r="AY21" t="n">
         <v>50.93788109838682</v>
@@ -3922,12 +3918,8 @@
       <c r="U22" t="n">
         <v>0</v>
       </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="n">
         <v>0</v>
       </c>
@@ -4076,53 +4068,53 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>21.75232</v>
+        <v>27</v>
       </c>
       <c r="W23" t="n">
-        <v>6.607359999999999</v>
+        <v>11.5</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>21.75232</v>
+        <v>27</v>
       </c>
       <c r="Z23" t="n">
-        <v>6.607359999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>21.75232</v>
+        <v>27</v>
       </c>
       <c r="AC23" t="n">
-        <v>6.607359999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>39.276672</v>
+        <v>53.7</v>
       </c>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="n">
-        <v>28.35968</v>
+        <v>38.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>21.75232</v>
+        <v>27</v>
       </c>
       <c r="AH23" t="n">
-        <v>6.607359999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>3.940879449544588</v>
+        <v>4.891604442087273</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1.197058945424806</v>
+        <v>2.083461151259396</v>
       </c>
       <c r="AK23" t="n">
-        <v>-181.0775061318498</v>
+        <v>-224.7618950787752</v>
       </c>
       <c r="AL23" t="n">
-        <v>-55.00306500250725</v>
+        <v>-95.73191827429315</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
@@ -4131,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="AO23" t="n">
-        <v>39.276672</v>
+        <v>53.7</v>
       </c>
       <c r="AP23" t="n">
         <v>57.15344973401032</v>
@@ -4140,10 +4132,10 @@
         <v>57.15344973401032</v>
       </c>
       <c r="AR23" t="n">
-        <v>5.103945605384847</v>
+        <v>12.77822571249886</v>
       </c>
       <c r="AS23" t="n">
-        <v>-332.3268777950374</v>
+        <v>-441.6717053441894</v>
       </c>
       <c r="AT23" t="n">
         <v>0</v>
@@ -4152,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="AV23" t="n">
-        <v>28.35968</v>
+        <v>38.5</v>
       </c>
       <c r="AW23" t="n">
-        <v>3.744790379866773</v>
+        <v>5.008982262072154</v>
       </c>
       <c r="AX23" t="n">
-        <v>-239.7814975706067</v>
+        <v>-325.7363310276438</v>
       </c>
       <c r="AY23" t="n">
         <v>57.15344973401032</v>
@@ -4235,53 +4227,53 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA24" t="n">
         <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>3.821413925621056</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>1.910706962810529</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>-117.2281409170267</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>-58.61407045851334</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
@@ -4290,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AP24" t="n">
         <v>79.46830817989363</v>
@@ -4299,10 +4291,10 @@
         <v>79.46830817989363</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>5.813912714325056</v>
       </c>
       <c r="AS24" t="n">
-        <v>0</v>
+        <v>-252.0018247014577</v>
       </c>
       <c r="AT24" t="n">
         <v>0</v>
@@ -4311,13 +4303,13 @@
         <v>0</v>
       </c>
       <c r="AV24" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>0</v>
+        <v>4.22863961733221</v>
       </c>
       <c r="AX24" t="n">
-        <v>0</v>
+        <v>-179.8095873587304</v>
       </c>
       <c r="AY24" t="n">
         <v>79.46830817989363</v>
@@ -4394,53 +4386,53 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>34.50368</v>
+        <v>3</v>
       </c>
       <c r="W25" t="n">
-        <v>10.48064</v>
+        <v>10</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.50368</v>
+        <v>3</v>
       </c>
       <c r="Z25" t="n">
-        <v>10.48064</v>
+        <v>10</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>34.50368</v>
+        <v>3</v>
       </c>
       <c r="AC25" t="n">
-        <v>10.48064</v>
+        <v>10</v>
       </c>
       <c r="AD25" t="n">
-        <v>62.30092800000001</v>
+        <v>19.05</v>
       </c>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="n">
-        <v>44.98432</v>
+        <v>13</v>
       </c>
       <c r="AG25" t="n">
-        <v>34.50368</v>
+        <v>3</v>
       </c>
       <c r="AH25" t="n">
-        <v>10.48064</v>
+        <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>5.765037982273859</v>
+        <v>0.5012527029941541</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1.751154082718771</v>
+        <v>1.670846570820955</v>
       </c>
       <c r="AK25" t="n">
-        <v>-181.970129907057</v>
+        <v>-15.82181117916546</v>
       </c>
       <c r="AL25" t="n">
-        <v>-55.27420829268689</v>
+        <v>-52.73934409644614</v>
       </c>
       <c r="AM25" t="n">
         <v>0</v>
@@ -4449,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="AO25" t="n">
-        <v>62.30092800000001</v>
+        <v>19.05</v>
       </c>
       <c r="AP25" t="n">
         <v>88.6373074789162</v>
@@ -4458,10 +4450,10 @@
         <v>88.6373074789162</v>
       </c>
       <c r="AR25" t="n">
-        <v>7.355321800873903</v>
+        <v>2.384582969929496</v>
       </c>
       <c r="AS25" t="n">
-        <v>-336.8423245658719</v>
+        <v>-102.616243427583</v>
       </c>
       <c r="AT25" t="n">
         <v>0</v>
@@ -4470,13 +4462,13 @@
         <v>0</v>
       </c>
       <c r="AV25" t="n">
-        <v>44.98432</v>
+        <v>13</v>
       </c>
       <c r="AW25" t="n">
-        <v>5.443919383736699</v>
+        <v>1.639343795048879</v>
       </c>
       <c r="AX25" t="n">
-        <v>-242.8390616851</v>
+        <v>-69.99344451851587</v>
       </c>
       <c r="AY25" t="n">
         <v>88.6373074789162</v>
@@ -4553,53 +4545,53 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>22.561</v>
+        <v>30</v>
       </c>
       <c r="W26" t="n">
-        <v>6.853</v>
+        <v>14</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>22.561</v>
+        <v>30</v>
       </c>
       <c r="Z26" t="n">
-        <v>6.853</v>
+        <v>14</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>22.561</v>
+        <v>30</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.853</v>
+        <v>14</v>
       </c>
       <c r="AD26" t="n">
-        <v>40.73685</v>
+        <v>61.5</v>
       </c>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="n">
-        <v>29.414</v>
+        <v>44</v>
       </c>
       <c r="AG26" t="n">
-        <v>22.561</v>
+        <v>30</v>
       </c>
       <c r="AH26" t="n">
-        <v>6.853</v>
+        <v>14</v>
       </c>
       <c r="AI26" t="n">
-        <v>4.310745978796832</v>
+        <v>5.732120888431584</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1.309407481614056</v>
+        <v>2.674989747934741</v>
       </c>
       <c r="AK26" t="n">
-        <v>-132.239204361452</v>
+        <v>-175.84221137554</v>
       </c>
       <c r="AL26" t="n">
-        <v>-40.1682224852192</v>
+        <v>-82.05969864191866</v>
       </c>
       <c r="AM26" t="n">
         <v>0</v>
@@ -4608,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="AO26" t="n">
-        <v>40.73685</v>
+        <v>61.5</v>
       </c>
       <c r="AP26" t="n">
         <v>79.46830817989363</v>
@@ -4617,10 +4609,10 @@
         <v>79.46830817989363</v>
       </c>
       <c r="AR26" t="n">
-        <v>5.650103667774881</v>
+        <v>8.238304507986481</v>
       </c>
       <c r="AS26" t="n">
-        <v>-244.3948459319656</v>
+        <v>-369.7939148238998</v>
       </c>
       <c r="AT26" t="n">
         <v>0</v>
@@ -4629,13 +4621,13 @@
         <v>0</v>
       </c>
       <c r="AV26" t="n">
-        <v>29.414</v>
+        <v>44</v>
       </c>
       <c r="AW26" t="n">
-        <v>4.149594508764189</v>
+        <v>6.071767274952687</v>
       </c>
       <c r="AX26" t="n">
-        <v>-176.2883626825925</v>
+        <v>-264.0501749707262</v>
       </c>
       <c r="AY26" t="n">
         <v>79.46830817989363</v>
@@ -4709,92 +4701,92 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V27" t="n">
-        <v>0.75008</v>
+        <v>32</v>
       </c>
       <c r="W27" t="n">
-        <v>0.22784</v>
+        <v>16</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.75008</v>
+        <v>32</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.22784</v>
+        <v>16</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.75008</v>
+        <v>32</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.22784</v>
+        <v>16</v>
       </c>
       <c r="AD27" t="n">
-        <v>1.354368</v>
+        <v>67.2</v>
       </c>
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="n">
-        <v>0.9779199999999999</v>
+        <v>48</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.75008</v>
+        <v>32</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.22784</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.1419748972447499</v>
+        <v>6.057053619578102</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0.03730559123836637</v>
+        <v>2.689409468077428</v>
       </c>
       <c r="AK27" t="n">
-        <v>-5.254976092105644</v>
+        <v>-224.1883759527957</v>
       </c>
       <c r="AL27" t="n">
-        <v>-1.217841479090206</v>
+        <v>-89.96536927926327</v>
       </c>
       <c r="AM27" t="n">
         <v>0</v>
       </c>
       <c r="AN27" t="n">
-        <v>-1.667907243847383</v>
+        <v>-123.1177054032817</v>
       </c>
       <c r="AO27" t="n">
-        <v>1.354368</v>
+        <v>67.2</v>
       </c>
       <c r="AP27" t="n">
         <v>67.91717479784909</v>
       </c>
       <c r="AQ27" t="n">
-        <v>122.3050291610995</v>
+        <v>110.5792734301108</v>
       </c>
       <c r="AR27" t="n">
-        <v>0.1695911330434878</v>
+        <v>7.896830572859139</v>
       </c>
       <c r="AS27" t="n">
-        <v>-7.365111149938096</v>
+        <v>-385.4153349567109</v>
       </c>
       <c r="AT27" t="n">
         <v>0</v>
       </c>
       <c r="AU27" t="n">
-        <v>-10.22386823170628</v>
+        <v>-535.707723014844</v>
       </c>
       <c r="AV27" t="n">
-        <v>0.9779199999999999</v>
+        <v>48</v>
       </c>
       <c r="AW27" t="n">
-        <v>0.1409286445050081</v>
+        <v>6.453802508669606</v>
       </c>
       <c r="AX27" t="n">
-        <v>-6.969345966578833</v>
+        <v>-343.417585107081</v>
       </c>
       <c r="AY27" t="n">
         <v>67.91717479784909</v>
@@ -4871,53 +4863,53 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>32.8746</v>
+        <v>46</v>
       </c>
       <c r="W28" t="n">
-        <v>9.985799999999999</v>
+        <v>18</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.8746</v>
+        <v>46</v>
       </c>
       <c r="Z28" t="n">
-        <v>9.985799999999999</v>
+        <v>18</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>32.8746</v>
+        <v>46</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.985799999999999</v>
+        <v>18</v>
       </c>
       <c r="AD28" t="n">
-        <v>59.35941000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="n">
-        <v>42.8604</v>
+        <v>64</v>
       </c>
       <c r="AG28" t="n">
-        <v>32.8746</v>
+        <v>46</v>
       </c>
       <c r="AH28" t="n">
-        <v>9.985799999999999</v>
+        <v>18</v>
       </c>
       <c r="AI28" t="n">
-        <v>6.271061875376173</v>
+        <v>8.774824523106094</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1.904861798322455</v>
+        <v>3.433626987302389</v>
       </c>
       <c r="AK28" t="n">
-        <v>-191.9468713229458</v>
+        <v>-268.5829205786687</v>
       </c>
       <c r="AL28" t="n">
-        <v>-58.30468105031458</v>
+        <v>-105.0976645742617</v>
       </c>
       <c r="AM28" t="n">
         <v>0</v>
@@ -4926,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="AO28" t="n">
-        <v>59.35941000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="AP28" t="n">
         <v>79.75790420253382</v>
@@ -4935,10 +4927,10 @@
         <v>79.75790420253382</v>
       </c>
       <c r="AR28" t="n">
-        <v>7.970472904804268</v>
+        <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>-355.4725899474064</v>
+        <v>0</v>
       </c>
       <c r="AT28" t="n">
         <v>0</v>
@@ -4947,13 +4939,13 @@
         <v>0</v>
       </c>
       <c r="AV28" t="n">
-        <v>42.8604</v>
+        <v>64</v>
       </c>
       <c r="AW28" t="n">
-        <v>5.916865465568187</v>
+        <v>8.521872689263722</v>
       </c>
       <c r="AX28" t="n">
-        <v>-256.1958614403747</v>
+        <v>-383.4858493310111</v>
       </c>
       <c r="AY28" t="n">
         <v>79.75790420253382</v>
@@ -5027,92 +5019,92 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
-        <v>42.00448</v>
+        <v>28</v>
       </c>
       <c r="W29" t="n">
-        <v>12.75904</v>
+        <v>15</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>42.00448</v>
+        <v>28</v>
       </c>
       <c r="Z29" t="n">
-        <v>12.75904</v>
+        <v>15</v>
       </c>
       <c r="AA29" t="n">
         <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>42.00448</v>
+        <v>28</v>
       </c>
       <c r="AC29" t="n">
-        <v>12.75904</v>
+        <v>15</v>
       </c>
       <c r="AD29" t="n">
-        <v>75.84460800000001</v>
+        <v>60.3</v>
       </c>
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="n">
-        <v>54.76352</v>
+        <v>43</v>
       </c>
       <c r="AG29" t="n">
-        <v>42.00448</v>
+        <v>28</v>
       </c>
       <c r="AH29" t="n">
-        <v>12.75904</v>
+        <v>15</v>
       </c>
       <c r="AI29" t="n">
-        <v>9.512467636831763</v>
+        <v>6.34096872122424</v>
       </c>
       <c r="AJ29" t="n">
-        <v>2.362955875617677</v>
+        <v>2.870821952840542</v>
       </c>
       <c r="AK29" t="n">
-        <v>-437.0836354906717</v>
+        <v>-291.358012139153</v>
       </c>
       <c r="AL29" t="n">
-        <v>-90.96729390333137</v>
+        <v>-114.1449936678592</v>
       </c>
       <c r="AM29" t="n">
         <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>-123.9778473578255</v>
+        <v>-155.4313062901332</v>
       </c>
       <c r="AO29" t="n">
-        <v>75.84460800000001</v>
+        <v>60.3</v>
       </c>
       <c r="AP29" t="n">
         <v>45.72275978720826</v>
       </c>
       <c r="AQ29" t="n">
-        <v>102.4755546109214</v>
+        <v>90.60376853635199</v>
       </c>
       <c r="AR29" t="n">
-        <v>10.62060782253762</v>
+        <v>8.408166648650681</v>
       </c>
       <c r="AS29" t="n">
-        <v>-436.0315816458361</v>
+        <v>-435.177109336442</v>
       </c>
       <c r="AT29" t="n">
         <v>0</v>
       </c>
       <c r="AU29" t="n">
-        <v>-1067.575459740271</v>
+        <v>-746.9040702939072</v>
       </c>
       <c r="AV29" t="n">
-        <v>54.76352</v>
+        <v>43</v>
       </c>
       <c r="AW29" t="n">
-        <v>0</v>
+        <v>12.92111320806856</v>
       </c>
       <c r="AX29" t="n">
-        <v>0</v>
+        <v>-441.9593474907924</v>
       </c>
       <c r="AY29" t="n">
         <v>45.72275978720826</v>
@@ -5189,53 +5181,53 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>50.9234</v>
+        <v>34</v>
       </c>
       <c r="W30" t="n">
-        <v>15.4682</v>
+        <v>14</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>50.9234</v>
+        <v>34</v>
       </c>
       <c r="Z30" t="n">
-        <v>15.4682</v>
+        <v>14</v>
       </c>
       <c r="AA30" t="n">
         <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>50.9234</v>
+        <v>34</v>
       </c>
       <c r="AC30" t="n">
-        <v>15.4682</v>
+        <v>14</v>
       </c>
       <c r="AD30" t="n">
-        <v>91.94889000000001</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="n">
-        <v>66.3916</v>
+        <v>48</v>
       </c>
       <c r="AG30" t="n">
-        <v>50.9234</v>
+        <v>34</v>
       </c>
       <c r="AH30" t="n">
-        <v>15.4682</v>
+        <v>14</v>
       </c>
       <c r="AI30" t="n">
-        <v>9.71399780695524</v>
+        <v>6.485739864904509</v>
       </c>
       <c r="AJ30" t="n">
-        <v>2.95066827583282</v>
+        <v>2.670598767901855</v>
       </c>
       <c r="AK30" t="n">
-        <v>-297.3294673433866</v>
+        <v>-198.5178108624943</v>
       </c>
       <c r="AL30" t="n">
-        <v>-90.31509417597751</v>
+        <v>-81.74262800220357</v>
       </c>
       <c r="AM30" t="n">
         <v>0</v>
@@ -5244,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="AO30" t="n">
-        <v>91.94889000000001</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="AP30" t="n">
         <v>79.75790420253382</v>
@@ -5253,10 +5245,10 @@
         <v>79.75790420253382</v>
       </c>
       <c r="AR30" t="n">
-        <v>0</v>
+        <v>8.860477575915496</v>
       </c>
       <c r="AS30" t="n">
-        <v>0</v>
+        <v>-401.0110201345354</v>
       </c>
       <c r="AT30" t="n">
         <v>0</v>
@@ -5265,13 +5257,13 @@
         <v>0</v>
       </c>
       <c r="AV30" t="n">
-        <v>66.3916</v>
+        <v>48</v>
       </c>
       <c r="AW30" t="n">
-        <v>8.801453944751287</v>
+        <v>6.572883249098376</v>
       </c>
       <c r="AX30" t="n">
-        <v>-397.9375945147268</v>
+        <v>-287.0532598008257</v>
       </c>
       <c r="AY30" t="n">
         <v>79.75790420253382</v>
@@ -5348,53 +5340,53 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>36.00384</v>
+        <v>16</v>
       </c>
       <c r="W31" t="n">
-        <v>10.93632</v>
+        <v>10</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.00384</v>
+        <v>16</v>
       </c>
       <c r="Z31" t="n">
-        <v>10.93632</v>
+        <v>10</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>36.00384</v>
+        <v>16</v>
       </c>
       <c r="AC31" t="n">
-        <v>10.93632</v>
+        <v>10</v>
       </c>
       <c r="AD31" t="n">
-        <v>65.009664</v>
+        <v>36.6</v>
       </c>
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="n">
-        <v>46.94015999999999</v>
+        <v>26</v>
       </c>
       <c r="AG31" t="n">
-        <v>36.00384</v>
+        <v>16</v>
       </c>
       <c r="AH31" t="n">
-        <v>10.93632</v>
+        <v>10</v>
       </c>
       <c r="AI31" t="n">
-        <v>6.814912168459711</v>
+        <v>3.028526809789054</v>
       </c>
       <c r="AJ31" t="n">
-        <v>2.070058645027014</v>
+        <v>1.892829256118159</v>
       </c>
       <c r="AK31" t="n">
-        <v>-252.2388255520094</v>
+        <v>-112.0941879763978</v>
       </c>
       <c r="AL31" t="n">
-        <v>-76.61861936562741</v>
+        <v>-70.05886748524864</v>
       </c>
       <c r="AM31" t="n">
         <v>0</v>
@@ -5403,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="AO31" t="n">
-        <v>65.009664</v>
+        <v>36.6</v>
       </c>
       <c r="AP31" t="n">
         <v>67.91717479784909</v>
@@ -5412,10 +5404,10 @@
         <v>67.91717479784909</v>
       </c>
       <c r="AR31" t="n">
-        <v>16.45929728467965</v>
+        <v>5.011394970247783</v>
       </c>
       <c r="AS31" t="n">
-        <v>-447.1075235012408</v>
+        <v>-261.5919987482518</v>
       </c>
       <c r="AT31" t="n">
         <v>0</v>
@@ -5424,13 +5416,13 @@
         <v>0</v>
       </c>
       <c r="AV31" t="n">
-        <v>46.94015999999999</v>
+        <v>26</v>
       </c>
       <c r="AW31" t="n">
-        <v>6.322262315007464</v>
+        <v>3.617653048696738</v>
       </c>
       <c r="AX31" t="n">
-        <v>-335.8027859065672</v>
+        <v>-185.6635105460606</v>
       </c>
       <c r="AY31" t="n">
         <v>67.91717479784909</v>
@@ -5502,12 +5494,8 @@
       <c r="U32" t="n">
         <v>0</v>
       </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="n">
         <v>0</v>
       </c>
@@ -5656,53 +5644,53 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>38.0314</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>11.5522</v>
+        <v>10</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>38.0314</v>
+        <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>11.5522</v>
+        <v>10</v>
       </c>
       <c r="AA33" t="n">
         <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>38.0314</v>
+        <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>11.5522</v>
+        <v>10</v>
       </c>
       <c r="AD33" t="n">
-        <v>68.67069000000001</v>
+        <v>15</v>
       </c>
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="n">
-        <v>49.5836</v>
+        <v>10</v>
       </c>
       <c r="AG33" t="n">
-        <v>38.0314</v>
+        <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>11.5522</v>
+        <v>10</v>
       </c>
       <c r="AI33" t="n">
-        <v>6.805483277298097</v>
+        <v>0</v>
       </c>
       <c r="AJ33" t="n">
-        <v>2.067194579111024</v>
+        <v>1.78943801103775</v>
       </c>
       <c r="AK33" t="n">
-        <v>-448.6196757320049</v>
+        <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>-136.2701404100629</v>
+        <v>-117.9603369142353</v>
       </c>
       <c r="AM33" t="n">
         <v>0</v>
@@ -5711,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="AO33" t="n">
-        <v>68.67069000000001</v>
+        <v>15</v>
       </c>
       <c r="AP33" t="n">
         <v>40.18170434782591</v>
@@ -5720,10 +5708,10 @@
         <v>40.18170434782591</v>
       </c>
       <c r="AR33" t="n">
-        <v>0</v>
+        <v>1.959178913704549</v>
       </c>
       <c r="AS33" t="n">
-        <v>0</v>
+        <v>-178.9475959687046</v>
       </c>
       <c r="AT33" t="n">
         <v>0</v>
@@ -5732,13 +5720,13 @@
         <v>0</v>
       </c>
       <c r="AV33" t="n">
-        <v>49.5836</v>
+        <v>10</v>
       </c>
       <c r="AW33" t="n">
-        <v>0</v>
+        <v>1.315067845250182</v>
       </c>
       <c r="AX33" t="n">
-        <v>0</v>
+        <v>-119.270949302532</v>
       </c>
       <c r="AY33" t="n">
         <v>40.18170434782591</v>
@@ -5812,92 +5800,92 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
-        <v>21.00224</v>
+        <v>11</v>
       </c>
       <c r="W34" t="n">
-        <v>6.37952</v>
+        <v>8</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>21.00224</v>
+        <v>11</v>
       </c>
       <c r="Z34" t="n">
-        <v>6.37952</v>
+        <v>8</v>
       </c>
       <c r="AA34" t="n">
         <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>21.00224</v>
+        <v>11</v>
       </c>
       <c r="AC34" t="n">
-        <v>6.37952</v>
+        <v>8</v>
       </c>
       <c r="AD34" t="n">
-        <v>37.922304</v>
+        <v>26.85</v>
       </c>
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="n">
-        <v>27.38176</v>
+        <v>19</v>
       </c>
       <c r="AG34" t="n">
-        <v>21.00224</v>
+        <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>6.37952</v>
+        <v>8</v>
       </c>
       <c r="AI34" t="n">
-        <v>3.701167345741899</v>
+        <v>1.938499931586389</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0.8733206069430951</v>
+        <v>1.142442732774021</v>
       </c>
       <c r="AK34" t="n">
-        <v>-234.7815004787242</v>
+        <v>-122.9676694136419</v>
       </c>
       <c r="AL34" t="n">
-        <v>-46.23053524492519</v>
+        <v>-62.36031442703547</v>
       </c>
       <c r="AM34" t="n">
         <v>0</v>
       </c>
       <c r="AN34" t="n">
-        <v>-68.25731792633684</v>
+        <v>-91.99623153537864</v>
       </c>
       <c r="AO34" t="n">
-        <v>37.922304</v>
+        <v>26.85</v>
       </c>
       <c r="AP34" t="n">
         <v>42.4263166007908</v>
       </c>
       <c r="AQ34" t="n">
-        <v>100.6965334720022</v>
+        <v>88.4882803180097</v>
       </c>
       <c r="AR34" t="n">
-        <v>3.749827062622817</v>
+        <v>2.790289135983859</v>
       </c>
       <c r="AS34" t="n">
-        <v>-277.1247348673299</v>
+        <v>-211.1804266236136</v>
       </c>
       <c r="AT34" t="n">
         <v>0</v>
       </c>
       <c r="AU34" t="n">
-        <v>-414.0686274609868</v>
+        <v>-315.0478679751292</v>
       </c>
       <c r="AV34" t="n">
-        <v>27.38176</v>
+        <v>19</v>
       </c>
       <c r="AW34" t="n">
-        <v>3.492518078105232</v>
+        <v>2.45142187612958</v>
       </c>
       <c r="AX34" t="n">
-        <v>-309.5973487220767</v>
+        <v>-214.7469265060082</v>
       </c>
       <c r="AY34" t="n">
         <v>42.4263166007908</v>
@@ -5974,53 +5962,53 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>30.4</v>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>23.125</v>
       </c>
       <c r="AA35" t="n">
         <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>30.4</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>23.125</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>75.72749999999999</v>
       </c>
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>53.525</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>30.4</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>23.125</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>2.877100469299596</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0</v>
+        <v>2.18858382738662</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>-106.4894785775779</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>-81.00556552981872</v>
       </c>
       <c r="AM35" t="n">
         <v>0</v>
@@ -6029,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="AO35" t="n">
-        <v>0</v>
+        <v>75.72749999999999</v>
       </c>
       <c r="AP35" t="n">
         <v>135.8343495956982</v>
@@ -6038,10 +6026,10 @@
         <v>135.8343495956982</v>
       </c>
       <c r="AR35" t="n">
-        <v>0</v>
+        <v>5.174237266593043</v>
       </c>
       <c r="AS35" t="n">
-        <v>0</v>
+        <v>-270.6540768120233</v>
       </c>
       <c r="AT35" t="n">
         <v>0</v>
@@ -6050,13 +6038,13 @@
         <v>0</v>
       </c>
       <c r="AV35" t="n">
-        <v>0</v>
+        <v>53.525</v>
       </c>
       <c r="AW35" t="n">
-        <v>0</v>
+        <v>3.71954315436332</v>
       </c>
       <c r="AX35" t="n">
-        <v>0</v>
+        <v>-191.1205737966667</v>
       </c>
       <c r="AY35" t="n">
         <v>135.8343495956982</v>
@@ -6130,92 +6118,92 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
-        <v>3.7504</v>
+        <v>32</v>
       </c>
       <c r="W36" t="n">
-        <v>1.1392</v>
+        <v>15</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
       <c r="Y36" t="n">
-        <v>3.7504</v>
+        <v>27.2</v>
       </c>
       <c r="Z36" t="n">
-        <v>1.1392</v>
+        <v>12.75</v>
       </c>
       <c r="AA36" t="n">
         <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>3.7504</v>
+        <v>27.2</v>
       </c>
       <c r="AC36" t="n">
-        <v>1.1392</v>
+        <v>12.75</v>
       </c>
       <c r="AD36" t="n">
-        <v>6.77184</v>
+        <v>55.845</v>
       </c>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="n">
-        <v>4.8896</v>
+        <v>39.95</v>
       </c>
       <c r="AG36" t="n">
-        <v>3.7504</v>
+        <v>27.2</v>
       </c>
       <c r="AH36" t="n">
-        <v>1.1392</v>
+        <v>12.75</v>
       </c>
       <c r="AI36" t="n">
-        <v>0.6609227403110524</v>
+        <v>4.79338164901361</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0.1559466247928992</v>
+        <v>1.820768105358597</v>
       </c>
       <c r="AK36" t="n">
-        <v>-41.9252679426293</v>
+        <v>-304.0655098228234</v>
       </c>
       <c r="AL36" t="n">
-        <v>-8.255465456086853</v>
+        <v>-99.38675111808776</v>
       </c>
       <c r="AM36" t="n">
         <v>0</v>
       </c>
       <c r="AN36" t="n">
-        <v>-12.18881761985134</v>
+        <v>-146.6189940095097</v>
       </c>
       <c r="AO36" t="n">
-        <v>6.77184</v>
+        <v>55.845</v>
       </c>
       <c r="AP36" t="n">
         <v>42.4263166007908</v>
       </c>
       <c r="AQ36" t="n">
-        <v>100.6965334720022</v>
+        <v>88.4882803180097</v>
       </c>
       <c r="AR36" t="n">
-        <v>0.6909821830586453</v>
+        <v>5.662287982542805</v>
       </c>
       <c r="AS36" t="n">
-        <v>-49.45071963292999</v>
+        <v>-434.8372496470766</v>
       </c>
       <c r="AT36" t="n">
         <v>0</v>
       </c>
       <c r="AU36" t="n">
-        <v>-73.83319027402803</v>
+        <v>-671.1750413696684</v>
       </c>
       <c r="AV36" t="n">
-        <v>4.8896</v>
+        <v>39.95</v>
       </c>
       <c r="AW36" t="n">
-        <v>0.6419856836405557</v>
+        <v>10.18371035178304</v>
       </c>
       <c r="AX36" t="n">
-        <v>-55.23947980075182</v>
+        <v>-442.2545450993455</v>
       </c>
       <c r="AY36" t="n">
         <v>42.4263166007908</v>
@@ -6292,53 +6280,53 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.6446000000000001</v>
+        <v>59</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1958</v>
+        <v>32.5</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.6446000000000001</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.1958</v>
+        <v>36.175</v>
       </c>
       <c r="AA37" t="n">
         <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.6446000000000001</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.1958</v>
+        <v>36.175</v>
       </c>
       <c r="AD37" t="n">
-        <v>1.16391</v>
+        <v>146.265</v>
       </c>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="n">
-        <v>0.8404</v>
+        <v>104.325</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.6446000000000001</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.1958</v>
+        <v>36.175</v>
       </c>
       <c r="AI37" t="n">
-        <v>0.0539298939393745</v>
+        <v>5.703555261251629</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0.01637251786274507</v>
+        <v>3.027529150048091</v>
       </c>
       <c r="AK37" t="n">
-        <v>-1.70562295078647</v>
+        <v>-180.3869012887344</v>
       </c>
       <c r="AL37" t="n">
-        <v>-0.5169624933693152</v>
+        <v>-95.75196117564151</v>
       </c>
       <c r="AM37" t="n">
         <v>0</v>
@@ -6347,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="AO37" t="n">
-        <v>1.16391</v>
+        <v>146.265</v>
       </c>
       <c r="AP37" t="n">
         <v>176.642758331491</v>
@@ -6356,10 +6344,10 @@
         <v>176.642758331491</v>
       </c>
       <c r="AR37" t="n">
-        <v>0.0745913112337071</v>
+        <v>8.504122011786951</v>
       </c>
       <c r="AS37" t="n">
-        <v>-3.142054665742022</v>
+        <v>-397.3024757020697</v>
       </c>
       <c r="AT37" t="n">
         <v>0</v>
@@ -6368,13 +6356,13 @@
         <v>0</v>
       </c>
       <c r="AV37" t="n">
-        <v>0.8404</v>
+        <v>104.325</v>
       </c>
       <c r="AW37" t="n">
-        <v>0.05386847717855544</v>
+        <v>6.258735809420591</v>
       </c>
       <c r="AX37" t="n">
-        <v>-2.26868350835049</v>
+        <v>-282.826701204706</v>
       </c>
       <c r="AY37" t="n">
         <v>176.642758331491</v>
@@ -6448,86 +6436,86 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
-        <v>37.504</v>
+        <v>45</v>
       </c>
       <c r="W38" t="n">
-        <v>11.392</v>
+        <v>17</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="Y38" t="n">
-        <v>37.504</v>
+        <v>31.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>11.392</v>
+        <v>11.9</v>
       </c>
       <c r="AA38" t="n">
         <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>37.504</v>
+        <v>31.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>11.392</v>
+        <v>11.9</v>
       </c>
       <c r="AD38" t="n">
-        <v>67.7184</v>
+        <v>60.37500000000001</v>
       </c>
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="n">
-        <v>48.896</v>
+        <v>43.4</v>
       </c>
       <c r="AG38" t="n">
-        <v>37.504</v>
+        <v>31.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>11.392</v>
+        <v>11.9</v>
       </c>
       <c r="AI38" t="n">
-        <v>6.609227403110527</v>
+        <v>5.551158894997378</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1.559501083826953</v>
+        <v>1.699383565001356</v>
       </c>
       <c r="AK38" t="n">
-        <v>-419.2526794262931</v>
+        <v>-352.1346896845198</v>
       </c>
       <c r="AL38" t="n">
-        <v>-82.55452722308073</v>
+        <v>-92.76096771021528</v>
       </c>
       <c r="AM38" t="n">
         <v>0</v>
       </c>
       <c r="AN38" t="n">
-        <v>-121.8880677256015</v>
+        <v>-136.8443944088757</v>
       </c>
       <c r="AO38" t="n">
-        <v>67.7184</v>
+        <v>60.37500000000001</v>
       </c>
       <c r="AP38" t="n">
         <v>42.4263166007908</v>
       </c>
       <c r="AQ38" t="n">
-        <v>100.6965334720022</v>
+        <v>88.4882803180097</v>
       </c>
       <c r="AR38" t="n">
-        <v>6.919300517407343</v>
+        <v>6.422186828735966</v>
       </c>
       <c r="AS38" t="n">
-        <v>-435.3808342256406</v>
+        <v>-435.2429137543872</v>
       </c>
       <c r="AT38" t="n">
         <v>0</v>
       </c>
       <c r="AU38" t="n">
-        <v>-892.2817839001963</v>
+        <v>-835.2235711707569</v>
       </c>
       <c r="AV38" t="n">
-        <v>48.896</v>
+        <v>43.4</v>
       </c>
       <c r="AW38" t="n">
         <v>0</v>
@@ -6610,53 +6598,53 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>36.0976</v>
+        <v>55</v>
       </c>
       <c r="W39" t="n">
-        <v>10.9648</v>
+        <v>32</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>36.0976</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="Z39" t="n">
-        <v>10.9648</v>
+        <v>35.95</v>
       </c>
       <c r="AA39" t="n">
         <v>0</v>
       </c>
       <c r="AB39" t="n">
-        <v>36.0976</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="AC39" t="n">
-        <v>10.9648</v>
+        <v>35.95</v>
       </c>
       <c r="AD39" t="n">
-        <v>65.17896</v>
+        <v>142.1475</v>
       </c>
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="n">
-        <v>47.0624</v>
+        <v>101.3</v>
       </c>
       <c r="AG39" t="n">
-        <v>36.0976</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="AH39" t="n">
-        <v>10.9648</v>
+        <v>35.95</v>
       </c>
       <c r="AI39" t="n">
-        <v>3.416329667782539</v>
+        <v>6.184819594366076</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1.037724711374219</v>
+        <v>3.402360587872386</v>
       </c>
       <c r="AK39" t="n">
-        <v>-126.4478487467755</v>
+        <v>-228.9173495080499</v>
       </c>
       <c r="AL39" t="n">
-        <v>-38.4090735101127</v>
+        <v>-125.9308143047344</v>
       </c>
       <c r="AM39" t="n">
         <v>0</v>
@@ -6665,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="AO39" t="n">
-        <v>65.17896</v>
+        <v>142.1475</v>
       </c>
       <c r="AP39" t="n">
         <v>135.8343495956982</v>
@@ -6674,10 +6662,10 @@
         <v>135.8343495956982</v>
       </c>
       <c r="AR39" t="n">
-        <v>4.489877058091929</v>
+        <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>-232.8473708352132</v>
+        <v>0</v>
       </c>
       <c r="AT39" t="n">
         <v>0</v>
@@ -6686,13 +6674,13 @@
         <v>0</v>
       </c>
       <c r="AV39" t="n">
-        <v>47.0624</v>
+        <v>101.3</v>
       </c>
       <c r="AW39" t="n">
-        <v>3.28605508770671</v>
+        <v>6.780350448741308</v>
       </c>
       <c r="AX39" t="n">
-        <v>-167.9997408782985</v>
+        <v>-362.4644870165465</v>
       </c>
       <c r="AY39" t="n">
         <v>135.8343495956982</v>
@@ -6766,92 +6754,92 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V40" t="n">
-        <v>77.25824</v>
+        <v>36</v>
       </c>
       <c r="W40" t="n">
-        <v>23.46752</v>
+        <v>14</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="Y40" t="n">
-        <v>77.25824</v>
+        <v>28.8</v>
       </c>
       <c r="Z40" t="n">
-        <v>23.46752</v>
+        <v>11.2</v>
       </c>
       <c r="AA40" t="n">
         <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>77.25824</v>
+        <v>28.8</v>
       </c>
       <c r="AC40" t="n">
-        <v>23.46752</v>
+        <v>11.2</v>
       </c>
       <c r="AD40" t="n">
-        <v>139.499904</v>
+        <v>55.68</v>
       </c>
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="n">
-        <v>100.72576</v>
+        <v>40</v>
       </c>
       <c r="AG40" t="n">
-        <v>77.25824</v>
+        <v>28.8</v>
       </c>
       <c r="AH40" t="n">
-        <v>23.46752</v>
+        <v>11.2</v>
       </c>
       <c r="AI40" t="n">
-        <v>13.61500845040769</v>
+        <v>5.075345275426173</v>
       </c>
       <c r="AJ40" t="n">
-        <v>3.212572232683526</v>
+        <v>1.59941982588363</v>
       </c>
       <c r="AK40" t="n">
-        <v>-863.6605196181636</v>
+        <v>-321.9517162829895</v>
       </c>
       <c r="AL40" t="n">
-        <v>-170.0623260795462</v>
+        <v>-87.30444019784964</v>
       </c>
       <c r="AM40" t="n">
         <v>0</v>
       </c>
       <c r="AN40" t="n">
-        <v>-251.089419514739</v>
+        <v>-128.7947241495301</v>
       </c>
       <c r="AO40" t="n">
-        <v>139.499904</v>
+        <v>55.68</v>
       </c>
       <c r="AP40" t="n">
         <v>42.4263166007908</v>
       </c>
       <c r="AQ40" t="n">
-        <v>100.6965334720022</v>
+        <v>88.4882803180097</v>
       </c>
       <c r="AR40" t="n">
-        <v>0</v>
+        <v>5.634228528537683</v>
       </c>
       <c r="AS40" t="n">
-        <v>0</v>
+        <v>-434.822479453829</v>
       </c>
       <c r="AT40" t="n">
         <v>0</v>
       </c>
       <c r="AU40" t="n">
-        <v>0</v>
+        <v>-665.2026506400398</v>
       </c>
       <c r="AV40" t="n">
-        <v>100.72576</v>
+        <v>40</v>
       </c>
       <c r="AW40" t="n">
-        <v>0</v>
+        <v>10.37369305363266</v>
       </c>
       <c r="AX40" t="n">
-        <v>0</v>
+        <v>-442.6865511654734</v>
       </c>
       <c r="AY40" t="n">
         <v>42.4263166007908</v>
@@ -6928,53 +6916,53 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>50.2788</v>
+        <v>47</v>
       </c>
       <c r="W41" t="n">
-        <v>15.2724</v>
+        <v>23</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>50.2788</v>
+        <v>50.6</v>
       </c>
       <c r="Z41" t="n">
-        <v>15.2724</v>
+        <v>24.4</v>
       </c>
       <c r="AA41" t="n">
         <v>0</v>
       </c>
       <c r="AB41" t="n">
-        <v>50.2788</v>
+        <v>50.6</v>
       </c>
       <c r="AC41" t="n">
-        <v>15.2724</v>
+        <v>24.4</v>
       </c>
       <c r="AD41" t="n">
-        <v>90.78498000000002</v>
+        <v>104.91</v>
       </c>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="n">
-        <v>65.55120000000001</v>
+        <v>75</v>
       </c>
       <c r="AG41" t="n">
-        <v>50.2788</v>
+        <v>50.6</v>
       </c>
       <c r="AH41" t="n">
-        <v>15.2724</v>
+        <v>24.4</v>
       </c>
       <c r="AI41" t="n">
-        <v>4.207893092728077</v>
+        <v>4.234774706079715</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1.278163748774141</v>
+        <v>2.042065273287454</v>
       </c>
       <c r="AK41" t="n">
-        <v>-133.083447285635</v>
+        <v>-133.9336347059422</v>
       </c>
       <c r="AL41" t="n">
-        <v>-40.42467576406865</v>
+        <v>-64.58459855385355</v>
       </c>
       <c r="AM41" t="n">
         <v>0</v>
@@ -6983,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="AO41" t="n">
-        <v>90.78498000000002</v>
+        <v>104.91</v>
       </c>
       <c r="AP41" t="n">
         <v>176.642758331491</v>
@@ -6992,10 +6980,10 @@
         <v>176.642758331491</v>
       </c>
       <c r="AR41" t="n">
-        <v>5.498338690030262</v>
+        <v>6.291212030811589</v>
       </c>
       <c r="AS41" t="n">
-        <v>-245.9722261737167</v>
+        <v>-284.4200960467524</v>
       </c>
       <c r="AT41" t="n">
         <v>0</v>
@@ -7004,13 +6992,13 @@
         <v>0</v>
       </c>
       <c r="AV41" t="n">
-        <v>65.55120000000001</v>
+        <v>75</v>
       </c>
       <c r="AW41" t="n">
-        <v>4.037948731773802</v>
+        <v>4.591242830995035</v>
       </c>
       <c r="AX41" t="n">
-        <v>-177.4126872543821</v>
+        <v>-203.066435049996</v>
       </c>
       <c r="AY41" t="n">
         <v>176.642758331491</v>
